--- a/medicine/Enfance/Bohumil_Říha/Bohumil_Říha.xlsx
+++ b/medicine/Enfance/Bohumil_Říha/Bohumil_Říha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bohumil_%C5%98%C3%ADha</t>
+          <t>Bohumil_Říha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bohumil Říha (22 février 1907 - 15 décembre 1987) est un écrivain tchécoslovaque, surtout connu pour ses œuvres destinées à la jeunesse, qui lui ont valu le prestigieux prix international, le prix Hans Christian Andersen, catégorie Écriture, en 1980.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bohumil_%C5%98%C3%ADha</t>
+          <t>Bohumil_Říha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Vyšetice, il fait ses études à Čáslav. Il termine ses études en 1925 et devient enseignant. Il travaille d'abord comme maître d'école à Poděbrady. En 1945, il devient inspecteur d'école à Vysoké Mýto.
 Il a déjà commencé à publier des romans historiques et des livres pour la jeunesse. En 1952, il adhère à l'Union des écrivains, ce qui lui permet de voyager en Union soviétique, en Chine ou encore au Mexique. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bohumil_%C5%98%C3%ADha</t>
+          <t>Bohumil_Říha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pour la jeunesse
-O lékaři Pingovi, 1941
+          <t>Pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>O lékaři Pingovi, 1941
 O třech penízcích, 1941
 Honzíkova cesta, 1954
 O letadélku Káněti, 1957
@@ -573,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bohumil_%C5%98%C3%ADha</t>
+          <t>Bohumil_Říha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,9 +610,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(international) « Honor List » 1972[1], de l' IBBY, pour O rezavém rváči a huňatém pánov, illustrations de Jiří Trnka
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(international) « Honor List » 1972, de l' IBBY, pour O rezavém rváči a huňatém pánov, illustrations de Jiří Trnka
 Artiste national, 1975
 Prix Hans Christian Andersen, catégorie Écriture, 1980</t>
         </is>
